--- a/数据整理/stocks/A股/深证主板/002139-拓邦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002139-拓邦股份.xlsx
@@ -451,295 +451,395 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>519975</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>长信量化中小盘股票</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>93.62</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.28</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005457</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城量化小盘股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006346</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>安信量化优选股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>90.85</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2.03</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006347</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>安信量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>90.85</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007950</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001917</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>招商量化精选股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004194</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004195</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>519929</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>长信电子信息行业量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>93.32</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -790,25 +900,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005005</t>
+          <t>168501</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中金金泽量化精选混合A</t>
+          <t>北信瑞丰产业升级多策略混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>51.63</t>
+          <t>12.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3866</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005006</t>
+          <t>501080</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中金金泽量化精选混合C</t>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>51.63</t>
+          <t>17.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>73.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3179</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -846,26 +976,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004724</t>
+          <t>001036</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>先锋聚元灵活配置混合A</t>
+          <t>嘉实企业变革股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2086</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004725</t>
+          <t>320011</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>先锋聚元灵活配置混合C</t>
+          <t>诺安中小盘精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2077</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005341</t>
+          <t>009511</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长安裕泰灵活配置混合A</t>
+          <t>信达澳银研究优选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.73</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1701</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005342</t>
+          <t>006265</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长安裕泰灵活配置混合C</t>
+          <t>红土创新新科技股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88.73</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -958,25 +1128,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006401</t>
+          <t>501201</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>先锋量化优选灵活配置混合A</t>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>96.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006402</t>
+          <t>519975</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>先锋量化优选灵活配置混合C</t>
+          <t>长信量化中小盘股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006265</t>
+          <t>007484</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>红土创新新科技股票</t>
+          <t>信达澳银核心科技混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.76</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>320011</t>
+          <t>005341</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>诺安中小盘精选混合</t>
+          <t>长安裕泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>87.12</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001036</t>
+          <t>001056</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉实企业变革股票</t>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>87.94</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001056</t>
+          <t>005342</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>北信瑞丰健康生活主题灵活配置混合</t>
+          <t>长安裕泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>84.29</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>501080</t>
+          <t>004925</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+          <t>长信低碳环保行业量化股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>73.90</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>501201</t>
+          <t>161039</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+          <t>富国中证1000指数增强LOF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>96.08</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>007484</t>
+          <t>005381</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>信达澳银核心科技混合</t>
+          <t>泰康睿利量化多策略混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>95.57</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001917</t>
+          <t>161037</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>招商量化精选股票A</t>
+          <t>富国中证高端制造指数增强（LOF）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1238,25 +1508,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>007950</t>
+          <t>001917</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>招商量化精选股票C</t>
+          <t>招商量化精选股票A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>93.02</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1.41</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>519975</t>
+          <t>006401</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>长信量化中小盘股票</t>
+          <t>先锋量化优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>161037</t>
+          <t>005005</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>富国中证高端制造指数增强（LOF）</t>
+          <t>中金金泽量化精选混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>8</v>
+          <t>51.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>161039</t>
+          <t>004724</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>富国中证1000指数增强LOF</t>
+          <t>先锋聚元灵活配置混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>92.23</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>3</v>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>168501</t>
+          <t>007950</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>北信瑞丰产业升级多策略混合</t>
+          <t>招商量化精选股票C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1378,25 +1698,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>005381</t>
+          <t>005382</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>泰康睿利量化多策略混合A</t>
+          <t>泰康睿利量化多策略混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>92.24</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>2.88</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>005382</t>
+          <t>004725</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>泰康睿利量化多策略混合C</t>
+          <t>先锋聚元灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2</v>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>004925</t>
+          <t>005006</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>长信低碳环保行业量化股票</t>
+          <t>中金金泽量化精选混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>88.98</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>4</v>
+          <t>51.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1462,26 +1812,30 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>009511</t>
+          <t>006402</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>信达澳银研究优选混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002139-拓邦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002139-拓邦股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1820,7 +1821,6 @@
           <t>先锋量化优选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>93.83</t>
@@ -1836,6 +1836,2000 @@
       </c>
       <c r="H26" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4999</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8167</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5043</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4702</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4599</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3650</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2860</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005743</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2701</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2411</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>69.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2153</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1868</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005744</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信达澳银转型创新股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002456</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>69.78</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002457</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>52.96</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>52.96</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002139-拓邦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002139-拓邦股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3835,4 +3836,630 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4610</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2872</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2298</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2167</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1647</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>40.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002139-拓邦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002139-拓邦股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4462,4 +4463,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>51</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002139-拓邦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002139-拓邦股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4471,7 +4472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4482,17 +4483,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4502,14 +4523,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.99</v>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7120</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -4518,14 +4561,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>51</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.6</v>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6998</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4534,14 +4599,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.97</v>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6997</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4550,13 +4637,1137 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4725</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4274</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009092</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3907</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3437</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2613</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006277</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011703</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中金鑫瑞优选一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010951</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中金成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005953</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005954</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010952</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中金成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>51</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002139-拓邦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002139-拓邦股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5666,7 +5667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5677,17 +5678,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5697,14 +5718,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.02</v>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9369</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -5713,14 +5756,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.99</v>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7705</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -5729,14 +5794,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>51</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.6</v>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2929</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -5745,14 +5832,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.97</v>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -5761,13 +5870,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009538</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>太平行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>51</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002139-拓邦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002139-拓邦股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5951,7 +5952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5962,17 +5963,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5982,14 +6003,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.07</v>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9016</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -5998,14 +6041,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.02</v>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3100</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -6014,14 +6079,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.99</v>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6602</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -6030,14 +6117,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>51</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.6</v>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3510</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -6046,14 +6155,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>25</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.97</v>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2638</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -6062,13 +6193,373 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2032</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银转型创新股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2026</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009538</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>太平行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>51</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>25</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002139-拓邦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002139-拓邦股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>6.01</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>4.07</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>6.02</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>1.99</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>7.6</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D7" t="n">
-        <v>1.97</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -600,6 +617,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1810</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0047</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6790</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2840</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1882</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009538</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>太平行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015389</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1073,7 +1678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1357,7 +1962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2551,7 +3156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3177,7 +3782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5171,7 +5776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6170,7 +6775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002139-拓邦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002139-拓邦股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>4.87</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>6.01</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>4.07</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>6.02</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>1.99</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>7.6</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D8" t="n">
-        <v>1.97</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,428 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1032,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0229</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2849</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2511</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1765</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1635</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013641</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道成长智航股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013642</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道成长智航股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012815</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013903</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰君安信息行业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015389</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1204,7 +2245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1678,7 +2719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1962,7 +3003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3156,7 +4197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3782,7 +4823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5776,7 +6817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6773,402 +7814,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519929</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>长信电子信息行业量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.32</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1036</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519975</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长信量化中小盘股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.62</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0974</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005457</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城量化小盘股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0199</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001917</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商量化精选股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0154</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004194</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006346</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>安信量化优选股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.85</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004195</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007950</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006347</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>安信量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.85</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>